--- a/Ex2.xlsx
+++ b/Ex2.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$O$64</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="124">
   <si>
     <t>&lt;item&gt;</t>
   </si>
@@ -205,6 +208,202 @@
   </si>
   <si>
     <t>cane</t>
+  </si>
+  <si>
+    <t>biglietto</t>
+  </si>
+  <si>
+    <t>strada</t>
+  </si>
+  <si>
+    <t>rosa</t>
+  </si>
+  <si>
+    <t>ancora</t>
+  </si>
+  <si>
+    <t>isola</t>
+  </si>
+  <si>
+    <t>iniziativa</t>
+  </si>
+  <si>
+    <t>ristorante</t>
+  </si>
+  <si>
+    <t>quadro</t>
+  </si>
+  <si>
+    <t>yogurt</t>
+  </si>
+  <si>
+    <t>zucchero</t>
+  </si>
+  <si>
+    <t>pneumatico</t>
+  </si>
+  <si>
+    <t>iato</t>
+  </si>
+  <si>
+    <t>ape</t>
+  </si>
+  <si>
+    <t>giardino</t>
+  </si>
+  <si>
+    <t>sole</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>letteratura</t>
+  </si>
+  <si>
+    <t>frutta</t>
+  </si>
+  <si>
+    <t>vestito</t>
+  </si>
+  <si>
+    <t>vita</t>
+  </si>
+  <si>
+    <t>notizia</t>
+  </si>
+  <si>
+    <t>appartamento</t>
+  </si>
+  <si>
+    <t>opportunità</t>
+  </si>
+  <si>
+    <t>momento</t>
+  </si>
+  <si>
+    <t>centro</t>
+  </si>
+  <si>
+    <t>spettacolo</t>
+  </si>
+  <si>
+    <t>succo</t>
+  </si>
+  <si>
+    <t>sorella</t>
+  </si>
+  <si>
+    <t>futuro</t>
+  </si>
+  <si>
+    <t>tazza</t>
+  </si>
+  <si>
+    <t>brioche</t>
+  </si>
+  <si>
+    <t>presidente</t>
+  </si>
+  <si>
+    <t>alcol</t>
+  </si>
+  <si>
+    <t>salute</t>
+  </si>
+  <si>
+    <t>finestra</t>
+  </si>
+  <si>
+    <t>occhio</t>
+  </si>
+  <si>
+    <t>unica cosa</t>
+  </si>
+  <si>
+    <t>ombra</t>
+  </si>
+  <si>
+    <t>quaderno</t>
+  </si>
+  <si>
+    <t>sedia</t>
+  </si>
+  <si>
+    <t>divano</t>
+  </si>
+  <si>
+    <t>fiore</t>
+  </si>
+  <si>
+    <t>tigre</t>
+  </si>
+  <si>
+    <t>cameriere</t>
+  </si>
+  <si>
+    <t>caffe</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>bagno</t>
+  </si>
+  <si>
+    <t>mela</t>
+  </si>
+  <si>
+    <t>dado</t>
+  </si>
+  <si>
+    <t>flusso</t>
+  </si>
+  <si>
+    <t>gnocco</t>
+  </si>
+  <si>
+    <t>gradino</t>
+  </si>
+  <si>
+    <t>hamburger</t>
+  </si>
+  <si>
+    <t>hostess</t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rologio</t>
+    </r>
+  </si>
+  <si>
+    <t>penna</t>
+  </si>
+  <si>
+    <t>scienza</t>
+  </si>
+  <si>
+    <t>sciocco</t>
+  </si>
+  <si>
+    <t>terreno</t>
+  </si>
+  <si>
+    <t>xilofono</t>
+  </si>
+  <si>
+    <t>zaino</t>
   </si>
 </sst>
 </file>
@@ -241,12 +440,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -541,16 +749,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
@@ -575,8 +783,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -588,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -600,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>3</v>
@@ -623,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -659,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>1</v>
@@ -670,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -706,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>1</v>
@@ -717,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -729,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>3</v>
@@ -747,13 +955,13 @@
         <v>3</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>1</v>
@@ -764,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -776,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
@@ -794,13 +1002,13 @@
         <v>3</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>1</v>
@@ -811,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -823,7 +1031,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3</v>
@@ -841,13 +1049,13 @@
         <v>3</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>1</v>
@@ -858,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -894,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>1</v>
@@ -905,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -917,13 +1125,13 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>3</v>
@@ -941,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>1</v>
@@ -952,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -964,25 +1172,25 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>3</v>
@@ -999,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -1011,13 +1219,13 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>3</v>
@@ -1035,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>1</v>
@@ -1046,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -1058,13 +1266,13 @@
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>3</v>
@@ -1093,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -1105,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>3</v>
@@ -1117,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>3</v>
@@ -1140,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -1152,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>3</v>
@@ -1164,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>3</v>
@@ -1176,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>1</v>
@@ -1187,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -1223,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>1</v>
@@ -1234,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -1270,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>1</v>
@@ -1281,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -1317,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>1</v>
@@ -1328,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -1340,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>3</v>
@@ -1352,19 +1560,19 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>1</v>
@@ -1375,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -1387,13 +1595,13 @@
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>3</v>
@@ -1405,13 +1613,13 @@
         <v>3</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>1</v>
@@ -1422,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -1433,14 +1641,14 @@
       <c r="E20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
+      <c r="F20" t="s">
+        <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>3</v>
@@ -1469,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -1493,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>3</v>
@@ -1505,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>1</v>
@@ -1516,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1528,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>3</v>
@@ -1540,19 +1748,19 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>1</v>
@@ -1563,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -1599,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>1</v>
@@ -1610,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1646,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>1</v>
@@ -1657,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -1693,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>1</v>
@@ -1704,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -1740,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>1</v>
@@ -1751,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1763,7 +1971,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>3</v>
@@ -1775,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>3</v>
@@ -1798,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1834,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>1</v>
@@ -1845,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1857,19 +2065,19 @@
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>3</v>
@@ -1881,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>1</v>
@@ -1892,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1904,19 +2112,19 @@
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>3</v>
@@ -1928,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>1</v>
@@ -1939,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -1975,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>1</v>
@@ -1986,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -1998,13 +2206,13 @@
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>3</v>
@@ -2022,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>1</v>
@@ -2033,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -2045,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>3</v>
@@ -2057,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>3</v>
@@ -2080,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -2092,13 +2300,13 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>3</v>
@@ -2127,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -2139,19 +2347,19 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>3</v>
@@ -2174,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -2210,7 +2418,7 @@
         <v>3</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>1</v>
@@ -2221,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -2233,13 +2441,13 @@
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>3</v>
@@ -2251,13 +2459,13 @@
         <v>3</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>1</v>
@@ -2268,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -2280,19 +2488,19 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>3</v>
@@ -2315,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -2327,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>3</v>
@@ -2345,13 +2553,13 @@
         <v>3</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>1</v>
@@ -2362,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -2374,13 +2582,13 @@
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>3</v>
@@ -2392,13 +2600,13 @@
         <v>3</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>1</v>
@@ -2409,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -2421,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>3</v>
@@ -2433,19 +2641,19 @@
         <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>1</v>
@@ -2456,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -2467,14 +2675,14 @@
       <c r="E42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F42" t="s">
-        <v>13</v>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>3</v>
@@ -2503,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -2515,7 +2723,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>3</v>
@@ -2533,13 +2741,13 @@
         <v>3</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>1</v>
@@ -2550,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -2562,13 +2770,13 @@
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>3</v>
@@ -2597,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -2609,13 +2817,13 @@
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>3</v>
@@ -2644,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -2668,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>3</v>
@@ -2691,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -2703,13 +2911,13 @@
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>3</v>
@@ -2727,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>1</v>
@@ -2737,8 +2945,8 @@
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -2749,20 +2957,20 @@
       <c r="E48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F48" t="s">
-        <v>13</v>
+      <c r="F48" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>3</v>
@@ -2785,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -2797,19 +3005,19 @@
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>3</v>
@@ -2821,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>1</v>
@@ -2832,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -2844,13 +3052,13 @@
         <v>3</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>3</v>
@@ -2868,7 +3076,7 @@
         <v>3</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>1</v>
@@ -2879,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
@@ -2915,13 +3123,2379 @@
         <v>3</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="B103" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="B105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="B106" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="B107" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="B108" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="B109" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="B110" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="B111" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="N2:N101">
+    <sortCondition ref="N2:N101"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
